--- a/ProjektfaseArtefakter/Tidsplan_prj4.xlsx
+++ b/ProjektfaseArtefakter/Tidsplan_prj4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\source\repos\SemesterProjekt4\ProjektfaseArtefakter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Documents\GitHub\SemesterProjekt4\ProjektfaseArtefakter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C03F494-F375-484A-9013-B889066F5822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81804FB-721B-4353-85E7-60BB0D42CA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,13 +189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -313,23 +313,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +552,7 @@
   <dimension ref="A1:S1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42:J43"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,132 +563,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>6</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>7</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>8</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>9</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>10</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>11</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>12</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>13</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>14</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="24">
         <v>15</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="24">
         <v>16</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="24">
         <v>17</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="24">
         <v>18</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>19</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>20</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>21</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>22</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="1"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="30"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="31"/>
-      <c r="P4" s="18"/>
+      <c r="N4" s="28"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
@@ -698,11 +699,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="26"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="16"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -710,7 +711,7 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
@@ -721,11 +722,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="16"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -733,7 +734,7 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
@@ -744,11 +745,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -756,7 +757,7 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
@@ -770,8 +771,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -779,7 +780,7 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
@@ -802,7 +803,7 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
@@ -825,7 +826,7 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
@@ -848,7 +849,7 @@
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
@@ -871,7 +872,7 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
@@ -894,7 +895,7 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
@@ -917,7 +918,7 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
@@ -940,7 +941,7 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
@@ -963,7 +964,7 @@
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
@@ -986,7 +987,7 @@
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
@@ -1009,7 +1010,7 @@
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
@@ -1028,7 +1029,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="14">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>

--- a/ProjektfaseArtefakter/Tidsplan_prj4.xlsx
+++ b/ProjektfaseArtefakter/Tidsplan_prj4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Documents\GitHub\SemesterProjekt4\ProjektfaseArtefakter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/804740c1e6e43e30/Software teknologi/4. Semester/PRJ4/Semester_Projekt_4_Dungeons_and_Gnoblins/ProjektfaseArtefakter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81804FB-721B-4353-85E7-60BB0D42CA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,12 +325,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:S1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -563,12 +563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -671,8 +671,8 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="1"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -682,7 +682,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="28"/>
-      <c r="P4" s="32"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
